--- a/24_Naive_Bayas_Algo(Conditional_probability).xlsx
+++ b/24_Naive_Bayas_Algo(Conditional_probability).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandeepmakwana/Documents/Machine learnning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3802C887-1EA3-554B-84C9-143C7E0CAB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A25555E-8457-9649-BA41-A6347EA3DFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18960" xr2:uid="{E047CAF5-8443-5840-93BA-1E66A79DFB42}"/>
+    <workbookView xWindow="1240" yWindow="500" windowWidth="24360" windowHeight="15500" xr2:uid="{E047CAF5-8443-5840-93BA-1E66A79DFB42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -156,13 +156,109 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,242 +573,422 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B69BE79-4005-5D44-82ED-FF83B51C1F12}">
-  <dimension ref="A3:I30"/>
+  <dimension ref="C2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="158" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D3" t="s">
+    <row r="2" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D5" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D4" s="8"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D6" s="8"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D8" t="s">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>8</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <v>3</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>12</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
         <v>13</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D13" t="s">
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="6">
         <v>1</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D14" t="s">
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="6">
         <v>14</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D15" t="s">
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="6">
         <f>+SUM(E8:E14)</f>
         <v>53</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="6">
         <f>+SUM(F8:F14)</f>
         <v>45</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="6">
         <f>+SUM(E15,F15)</f>
         <v>98</v>
       </c>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D16" s="8"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D17" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D18" s="8"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="E19" s="6"/>
+      <c r="F19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="6">
         <f>2/E15</f>
         <v>3.7735849056603772E-2</v>
       </c>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="E20" s="6"/>
+      <c r="F20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="6">
         <f>E15/G15</f>
         <v>0.54081632653061229</v>
       </c>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D21" t="s">
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="E21" s="6"/>
+      <c r="F21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="6">
         <f>(E8+F8)/G15</f>
         <v>0.12244897959183673</v>
       </c>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="E23" t="s">
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D22" s="8"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D23" s="8"/>
+      <c r="E23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G23">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6">
         <f>+(G19*G20)/G21</f>
         <v>0.16666666666666669</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D25" t="s">
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D24" s="8"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D25" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="E26" t="s">
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D26" s="8"/>
+      <c r="E26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="6">
         <f>14/53</f>
         <v>0.26415094339622641</v>
       </c>
-    </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="E27" t="s">
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D27" s="8"/>
+      <c r="E27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="6">
         <f>53/98</f>
         <v>0.54081632653061229</v>
       </c>
-    </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="E28" t="s">
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D28" s="8"/>
+      <c r="E28" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="6">
         <f>16/98</f>
         <v>0.16326530612244897</v>
       </c>
-    </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="E30" t="s">
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D29" s="8"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D30" s="8"/>
+      <c r="E30" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G30">
+      <c r="F30" s="6"/>
+      <c r="G30" s="6">
         <f>+G26*G27/G28</f>
         <v>0.87500000000000022</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="I30" s="6"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D31" s="11"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D5:G5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="F19" twoDigitTextYear="1"/>
